--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416941A-8747-4C00-A435-CAE369AC29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2008F-ACF0-47C0-8049-A181662A39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75319CD8-D9B6-4572-860A-DE2FB386114D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A2EE7872-1D8A-4869-BB24-812B0A6E981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -668,7 +666,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,12 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,19 +835,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{479C5385-6B48-4E8C-B9FE-F165BA93C86D}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{6FB45ACE-BA03-41DD-80F7-8FAE4E539A53}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1198,10 +1181,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB7579-A9B0-475F-A116-58DFC8392559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62470ACE-2AF0-4125-9919-AD90F00FFF7C}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1227,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1241,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1255,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1269,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1283,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1297,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1311,10 +1296,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1325,10 +1310,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1339,10 +1324,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1353,10 +1338,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1367,10 +1352,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1381,10 +1366,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1395,10 +1380,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1409,10 +1394,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1423,10 +1408,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1437,10 +1422,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1451,10 +1436,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1465,10 +1450,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1479,10 +1464,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1493,10 +1478,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1507,10 +1492,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7">
         <v>19</v>
-      </c>
-      <c r="D22" s="7">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1521,10 +1506,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1535,10 +1520,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1549,10 +1534,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1563,10 +1548,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D26" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1577,10 +1562,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1591,10 +1576,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D28" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1605,10 +1590,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1619,10 +1604,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1633,10 +1618,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D31" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1647,10 +1632,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D32" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1661,10 +1646,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D33" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1675,10 +1660,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="7">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1689,10 +1674,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D35" s="7">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1703,10 +1688,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D36" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1717,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1731,10 +1716,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D38" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1745,10 +1730,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D39" s="7">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1759,10 +1744,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D40" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1773,10 +1758,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D41" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1787,10 +1772,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D42" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1801,10 +1786,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D43" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1815,10 +1800,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
+        <v>53</v>
+      </c>
+      <c r="D44" s="7">
         <v>38</v>
-      </c>
-      <c r="D44" s="7">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1829,10 +1814,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D45" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1843,10 +1828,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D46" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1857,10 +1842,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D47" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1871,10 +1856,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D48" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1885,10 +1870,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D49" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1899,10 +1884,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1913,10 +1898,10 @@
         <v>98</v>
       </c>
       <c r="C51" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D51" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1927,10 +1912,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D52" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1941,10 +1926,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D53" s="7">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1955,10 +1940,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D54" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1969,10 +1954,10 @@
         <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D55" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1983,10 +1968,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="7">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D56" s="7">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1997,10 +1982,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D57" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2011,10 +1996,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D58" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2025,10 +2010,10 @@
         <v>114</v>
       </c>
       <c r="C59" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D59" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2039,10 +2024,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D60" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2053,10 +2038,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D61" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2067,10 +2052,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D62" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2081,10 +2066,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D63" s="7">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2095,10 +2080,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D64" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2109,10 +2094,10 @@
         <v>126</v>
       </c>
       <c r="C65" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D65" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2123,10 +2108,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D66" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2137,10 +2122,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D67" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2151,10 +2136,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D68" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2165,10 +2150,10 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D69" s="7">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2179,10 +2164,10 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D70" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2193,10 +2178,10 @@
         <v>138</v>
       </c>
       <c r="C71" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D71" s="7">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2207,10 +2192,10 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2221,10 +2206,10 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D73" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2235,10 +2220,10 @@
         <v>144</v>
       </c>
       <c r="C74" s="7">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D74" s="7">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2249,10 +2234,10 @@
         <v>146</v>
       </c>
       <c r="C75" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D75" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2263,10 +2248,10 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D76" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2277,10 +2262,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D77" s="7">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2291,10 +2276,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D78" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2305,10 +2290,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D79" s="7">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2319,10 +2304,10 @@
         <v>156</v>
       </c>
       <c r="C80" s="7">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D80" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2333,10 +2318,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D81" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2347,10 +2332,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D82" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -2361,93 +2346,93 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D83" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="10">
-        <v>128</v>
-      </c>
-      <c r="D84" s="10">
-        <v>37</v>
+      <c r="C84" s="7">
+        <v>143</v>
+      </c>
+      <c r="D84" s="7">
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="7">
         <v>0</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="10">
-        <v>10</v>
-      </c>
-      <c r="D86" s="10">
+      <c r="C86" s="7">
+        <v>11</v>
+      </c>
+      <c r="D86" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="7">
+        <v>5</v>
+      </c>
+      <c r="D87" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="10">
-        <v>5</v>
-      </c>
-      <c r="D87" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="8" t="s">
+      <c r="B88" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="10">
+      <c r="B89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="7">
         <v>0</v>
       </c>
-      <c r="D88" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="10">
-        <v>0</v>
-      </c>
-      <c r="D89" s="10">
+      <c r="D89" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2459,80 +2444,54 @@
         <v>174</v>
       </c>
       <c r="C90" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="10">
+      <c r="D91" s="7">
         <v>0</v>
       </c>
-      <c r="D91" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="10">
-        <v>128</v>
-      </c>
-      <c r="D92" s="10">
-        <v>30</v>
+      <c r="C92" s="7">
+        <v>167</v>
+      </c>
+      <c r="D92" s="7">
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="14"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>3238</v>
+        <v>4097</v>
       </c>
       <c r="D93" s="7">
-        <v>1164</v>
+        <v>2409</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748E2F3C-E628-4800-BDAC-12D7C4B898C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F0CFC7-5857-4EB0-B2A9-BBCBD949D695}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2008F-ACF0-47C0-8049-A181662A39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA5E8CE-449B-4FD8-97CD-EE6F7A552EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A2EE7872-1D8A-4869-BB24-812B0A6E981C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C83E74D-5E41-4ECA-BE5D-1EC7ABDBA46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{6FB45ACE-BA03-41DD-80F7-8FAE4E539A53}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{A06113D5-2E6C-4844-85CE-81638A3FF783}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,12 +1181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62470ACE-2AF0-4125-9919-AD90F00FFF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB02D0-80A4-4B53-B44A-F50A9F1CBAC0}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1212,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1226,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1240,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1254,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1268,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1282,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1296,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1310,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1324,10 +1322,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1338,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1352,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1366,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7">
         <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1380,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1394,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1408,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1422,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1436,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1450,10 +1448,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1464,10 +1462,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1478,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1495,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1506,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1520,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1534,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1548,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1562,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D27" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1576,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1590,10 +1588,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1604,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1618,10 +1616,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1632,10 +1630,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D32" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1646,10 +1644,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1660,10 +1658,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D34" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1674,10 +1672,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1688,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1702,10 +1700,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D37" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1716,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1730,10 +1728,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D39" s="7">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1744,10 +1742,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D40" s="7">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1758,10 +1756,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D41" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1772,10 +1770,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1786,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D43" s="7">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1800,10 +1798,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1814,10 +1812,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1828,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D46" s="7">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1842,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D47" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1856,10 +1854,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D48" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1870,10 +1868,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D49" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1884,10 +1882,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D50" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1898,10 +1896,10 @@
         <v>98</v>
       </c>
       <c r="C51" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D51" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1912,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D52" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1926,10 +1924,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D53" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1940,10 +1938,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D54" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1954,10 +1952,10 @@
         <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D55" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1968,10 +1966,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1982,10 +1980,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D57" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1996,10 +1994,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D58" s="7">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2010,10 +2008,10 @@
         <v>114</v>
       </c>
       <c r="C59" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2024,10 +2022,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D60" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2038,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2052,10 +2050,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D62" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2066,10 +2064,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D63" s="7">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2080,10 +2078,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2094,10 +2092,10 @@
         <v>126</v>
       </c>
       <c r="C65" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2108,10 +2106,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D66" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2122,10 +2120,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D67" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2136,10 +2134,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D68" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2150,10 +2148,10 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D69" s="7">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2164,10 +2162,10 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D70" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2178,10 +2176,10 @@
         <v>138</v>
       </c>
       <c r="C71" s="7">
+        <v>65</v>
+      </c>
+      <c r="D71" s="7">
         <v>53</v>
-      </c>
-      <c r="D71" s="7">
-        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2192,10 +2190,10 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D72" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2206,10 +2204,10 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D73" s="7">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2220,10 +2218,10 @@
         <v>144</v>
       </c>
       <c r="C74" s="7">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D74" s="7">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2234,10 +2232,10 @@
         <v>146</v>
       </c>
       <c r="C75" s="7">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D75" s="7">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2248,10 +2246,10 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2262,10 +2260,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D77" s="7">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2276,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D78" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2290,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
+        <v>98</v>
+      </c>
+      <c r="D79" s="7">
         <v>97</v>
-      </c>
-      <c r="D79" s="7">
-        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2304,10 +2302,10 @@
         <v>156</v>
       </c>
       <c r="C80" s="7">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D80" s="7">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2318,10 +2316,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D81" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2332,10 +2330,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -2346,10 +2344,10 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D83" s="7">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2360,10 +2358,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D84" s="7">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2391,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -2472,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="D92" s="7">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2484,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>4097</v>
+        <v>4798</v>
       </c>
       <c r="D93" s="7">
-        <v>2409</v>
+        <v>3412</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA5E8CE-449B-4FD8-97CD-EE6F7A552EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20056550-797D-4255-897A-C28F76DC2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C83E74D-5E41-4ECA-BE5D-1EC7ABDBA46C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8D13B56D-116A-4754-91E2-D07769E77B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{A06113D5-2E6C-4844-85CE-81638A3FF783}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{9FD7BBBF-12B2-4157-BEDF-96355A273A03}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB02D0-80A4-4B53-B44A-F50A9F1CBAC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F84543-9222-4114-BB79-AD8F8942D75C}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1364,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1392,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1406,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1434,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1451,7 +1451,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1462,10 +1462,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
         <v>20</v>
@@ -1504,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1532,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1588,10 +1588,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1602,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,10 +1616,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1630,10 +1630,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,10 +1644,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1658,10 +1658,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D34" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1675,7 +1675,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1686,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1700,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D38" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1728,10 +1728,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D39" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1742,10 +1742,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D40" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1756,10 +1756,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1770,10 +1770,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D42" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D43" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,10 +1798,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D44" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1812,7 +1812,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="7">
         <v>18</v>
@@ -1826,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D46" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1840,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1854,10 +1854,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1868,10 +1868,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1882,10 +1882,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D50" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1896,10 +1896,10 @@
         <v>98</v>
       </c>
       <c r="C51" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D51" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D52" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1924,10 +1924,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D53" s="7">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1938,10 +1938,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D54" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1966,10 +1966,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1980,10 +1980,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1994,10 +1994,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D58" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2022,10 +2022,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D60" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2036,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2050,10 +2050,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D62" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2064,10 +2064,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D63" s="7">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2106,10 +2106,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2120,10 +2120,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D67" s="7">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2134,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D68" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2148,10 +2148,10 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D69" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2162,10 +2162,10 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D70" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2176,10 +2176,10 @@
         <v>138</v>
       </c>
       <c r="C71" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D71" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2190,10 +2190,10 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2204,10 +2204,10 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D73" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2218,10 +2218,10 @@
         <v>144</v>
       </c>
       <c r="C74" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D74" s="7">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2232,7 +2232,7 @@
         <v>146</v>
       </c>
       <c r="C75" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75" s="7">
         <v>104</v>
@@ -2246,10 +2246,10 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D76" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2260,10 +2260,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D77" s="7">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D78" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2288,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
+        <v>99</v>
+      </c>
+      <c r="D79" s="7">
         <v>98</v>
-      </c>
-      <c r="D79" s="7">
-        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2305,7 +2305,7 @@
         <v>107</v>
       </c>
       <c r="D80" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,10 +2316,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D81" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2330,10 +2330,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -2344,10 +2344,10 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D83" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2358,10 +2358,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D84" s="7">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2389,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D92" s="7">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>4798</v>
+        <v>4977</v>
       </c>
       <c r="D93" s="7">
-        <v>3412</v>
+        <v>3696</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20056550-797D-4255-897A-C28F76DC2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BB349-A8C8-49B0-8182-D4DF8B206B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8D13B56D-116A-4754-91E2-D07769E77B9C}"/>
+    <workbookView xWindow="1095" yWindow="1095" windowWidth="16470" windowHeight="9900" xr2:uid="{0EFC62E4-CC53-4F3B-A2AC-810C0154311D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{9FD7BBBF-12B2-4157-BEDF-96355A273A03}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{76E3F7E9-30DA-4AEB-95B9-018998A5105C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F84543-9222-4114-BB79-AD8F8942D75C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE2F222-0F93-4E31-9245-6224D1D2DA75}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1322,10 +1322,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1392,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1406,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1434,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1448,10 +1448,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1504,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1532,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1588,10 +1588,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1602,7 +1602,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7">
         <v>34</v>
@@ -1619,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1630,7 +1630,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="7">
         <v>30</v>
@@ -1644,10 +1644,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1661,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1675,7 +1675,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1700,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1728,10 +1728,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1745,7 +1745,7 @@
         <v>73</v>
       </c>
       <c r="D40" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1756,10 +1756,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D41" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1773,7 +1773,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,7 +1798,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="7">
         <v>49</v>
@@ -1812,10 +1812,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1840,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1868,10 +1868,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1882,10 +1882,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="D51" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1927,7 +1927,7 @@
         <v>81</v>
       </c>
       <c r="D53" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1938,10 +1938,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1955,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="D55" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1969,7 +1969,7 @@
         <v>81</v>
       </c>
       <c r="D56" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1980,10 +1980,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1994,10 +1994,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D58" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2008,10 +2008,10 @@
         <v>114</v>
       </c>
       <c r="C59" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2022,10 +2022,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D60" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2036,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2053,7 +2053,7 @@
         <v>54</v>
       </c>
       <c r="D62" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2064,10 +2064,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2081,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="D64" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2092,10 +2092,10 @@
         <v>126</v>
       </c>
       <c r="C65" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2106,10 +2106,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2120,10 +2120,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2134,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2148,10 +2148,10 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2162,7 +2162,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" s="7">
         <v>35</v>
@@ -2179,7 +2179,7 @@
         <v>67</v>
       </c>
       <c r="D71" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2204,7 +2204,7 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D73" s="7">
         <v>35</v>
@@ -2218,10 +2218,10 @@
         <v>144</v>
       </c>
       <c r="C74" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D74" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2235,7 +2235,7 @@
         <v>108</v>
       </c>
       <c r="D75" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2246,10 +2246,10 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2260,10 +2260,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
+        <v>129</v>
+      </c>
+      <c r="D77" s="7">
         <v>127</v>
-      </c>
-      <c r="D77" s="7">
-        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D78" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2288,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D79" s="7">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2302,10 +2302,10 @@
         <v>156</v>
       </c>
       <c r="C80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D80" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,10 +2316,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D81" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2344,10 +2344,10 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D83" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2358,10 +2358,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D84" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D92" s="7">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>4977</v>
+        <v>5110</v>
       </c>
       <c r="D93" s="7">
-        <v>3696</v>
+        <v>3875</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BB349-A8C8-49B0-8182-D4DF8B206B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACFA22B-1ECF-4FB8-91E9-7A35201EAFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1095" windowWidth="16470" windowHeight="9900" xr2:uid="{0EFC62E4-CC53-4F3B-A2AC-810C0154311D}"/>
+    <workbookView xWindow="1350" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{6CDB1AB7-D6E5-456C-A730-CB24DD6081EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{76E3F7E9-30DA-4AEB-95B9-018998A5105C}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{FBBCE05D-1BD2-4F55-99FD-085461CFF404}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE2F222-0F93-4E31-9245-6224D1D2DA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915D2942-008D-4C86-865F-20D581671C15}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7">
         <v>20</v>
-      </c>
-      <c r="D2" s="7">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1269,7 +1269,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
         <v>29</v>
@@ -1308,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1325,7 +1325,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1353,7 +1353,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1392,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1448,10 +1448,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1462,10 +1462,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1479,7 +1479,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1521,7 +1521,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1591,7 +1591,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1602,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,10 +1616,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1630,10 +1630,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,7 +1644,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="7">
         <v>33</v>
@@ -1672,10 +1672,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1700,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1728,10 +1728,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1759,7 +1759,7 @@
         <v>54</v>
       </c>
       <c r="D41" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1770,10 +1770,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D42" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D43" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,10 +1798,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1812,10 +1812,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1840,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1857,7 +1857,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1868,10 +1868,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="D51" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1913,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1924,10 +1924,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D53" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1938,10 +1938,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D54" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1952,10 +1952,10 @@
         <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1983,7 +1983,7 @@
         <v>65</v>
       </c>
       <c r="D57" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1994,10 +1994,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2022,7 +2022,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D60" s="7">
         <v>32</v>
@@ -2036,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2050,10 +2050,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2067,7 +2067,7 @@
         <v>101</v>
       </c>
       <c r="D63" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2092,10 +2092,10 @@
         <v>126</v>
       </c>
       <c r="C65" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2137,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="D68" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2148,7 +2148,7 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" s="7">
         <v>73</v>
@@ -2190,10 +2190,10 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2207,7 +2207,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2221,7 +2221,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2246,7 +2246,7 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="7">
         <v>14</v>
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2288,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" s="7">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2305,7 +2305,7 @@
         <v>108</v>
       </c>
       <c r="D80" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2319,7 +2319,7 @@
         <v>72</v>
       </c>
       <c r="D81" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2330,10 +2330,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -2347,7 +2347,7 @@
         <v>69</v>
       </c>
       <c r="D83" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2358,10 +2358,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D84" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D92" s="7">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5110</v>
+        <v>5179</v>
       </c>
       <c r="D93" s="7">
-        <v>3875</v>
+        <v>3996</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACFA22B-1ECF-4FB8-91E9-7A35201EAFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881C2E2-7129-4209-A3F9-1CD55B18AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{6CDB1AB7-D6E5-456C-A730-CB24DD6081EC}"/>
+    <workbookView xWindow="345" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{38411F5F-478C-4D01-A536-4182D2D52BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{FBBCE05D-1BD2-4F55-99FD-085461CFF404}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{516B7889-733B-422D-8934-EE2DD855A7B2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915D2942-008D-4C86-865F-20D581671C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2949B8DA-986C-4B64-9C11-61E5EE67972E}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
         <v>21</v>
@@ -1336,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1364,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1392,10 +1392,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1406,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1434,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1448,7 +1448,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
         <v>36</v>
@@ -1462,10 +1462,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1504,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1535,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D28" s="7">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1588,10 +1588,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1602,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,10 +1616,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1630,10 +1630,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,10 +1644,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1658,10 +1658,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D34" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1672,10 +1672,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1686,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1700,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D37" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1728,10 +1728,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1742,10 +1742,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1756,10 +1756,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D41" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1770,10 +1770,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D43" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,10 +1798,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D44" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1812,10 +1812,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1840,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D47" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1854,10 +1854,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D48" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1868,10 +1868,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D49" s="7">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1882,10 +1882,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D50" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="D51" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D52" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1924,10 +1924,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1938,10 +1938,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1952,10 +1952,10 @@
         <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1966,10 +1966,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="7">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D56" s="7">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1980,10 +1980,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D57" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1994,10 +1994,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D58" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2008,10 +2008,10 @@
         <v>114</v>
       </c>
       <c r="C59" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D59" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2022,10 +2022,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D60" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2036,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D61" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2050,10 +2050,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D62" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2064,10 +2064,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D63" s="7">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2092,10 +2092,10 @@
         <v>126</v>
       </c>
       <c r="C65" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2106,10 +2106,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D66" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2120,10 +2120,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="7">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D67" s="7">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2134,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D68" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2148,10 +2148,10 @@
         <v>134</v>
       </c>
       <c r="C69" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D69" s="7">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2162,10 +2162,10 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D70" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2176,10 +2176,10 @@
         <v>138</v>
       </c>
       <c r="C71" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D71" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2190,10 +2190,10 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2207,7 +2207,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2260,10 +2260,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D77" s="7">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D78" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2288,10 +2288,10 @@
         <v>154</v>
       </c>
       <c r="C79" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D79" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -2302,10 +2302,10 @@
         <v>156</v>
       </c>
       <c r="C80" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D80" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,10 +2316,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D81" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2330,7 +2330,7 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" s="7">
         <v>15</v>
@@ -2344,10 +2344,10 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D83" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2358,10 +2358,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D84" s="7">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2386,10 +2386,10 @@
         <v>168</v>
       </c>
       <c r="C86" s="7">
+        <v>13</v>
+      </c>
+      <c r="D86" s="7">
         <v>11</v>
-      </c>
-      <c r="D86" s="7">
-        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D92" s="7">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5179</v>
+        <v>5410</v>
       </c>
       <c r="D93" s="7">
-        <v>3996</v>
+        <v>4344</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881C2E2-7129-4209-A3F9-1CD55B18AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0BA24-E1A8-44F7-924D-950500F31763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{38411F5F-478C-4D01-A536-4182D2D52BAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{234629A5-319C-4BE9-9019-376A91358823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -850,7 +852,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{516B7889-733B-422D-8934-EE2DD855A7B2}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{57C990E1-5312-4FD2-9918-C13D7166C415}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2949B8DA-986C-4B64-9C11-61E5EE67972E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97416AD-E5C4-49B5-8192-A110C4B82975}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1406,7 +1408,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
         <v>59</v>
@@ -1451,7 +1453,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,10 +1520,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1591,7 +1593,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,10 +1618,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,10 +1646,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1672,10 +1674,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1742,10 +1744,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1787,7 +1789,7 @@
         <v>62</v>
       </c>
       <c r="D43" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,7 +1828,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" s="7">
         <v>51</v>
@@ -1868,10 +1870,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="7">
         <v>40</v>
@@ -2078,10 +2080,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2136,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2221,7 +2223,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2260,10 +2262,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
+        <v>132</v>
+      </c>
+      <c r="D77" s="7">
         <v>131</v>
-      </c>
-      <c r="D77" s="7">
-        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,7 +2318,7 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D81" s="7">
         <v>53</v>
@@ -2358,7 +2360,7 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D84" s="7">
         <v>124</v>
@@ -2470,7 +2472,7 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D92" s="7">
         <v>172</v>
@@ -2482,14 +2484,40 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5410</v>
+        <v>5428</v>
       </c>
       <c r="D93" s="7">
-        <v>4344</v>
+        <v>4358</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69562641-6F7A-405B-921A-F4DD405F4BD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFCD557-8724-4C37-AFFF-A684CF2C53E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0BA24-E1A8-44F7-924D-950500F31763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE3FDD0-7547-4BED-A9FE-FE4F98FB3616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{234629A5-319C-4BE9-9019-376A91358823}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{DD01445C-ED28-460A-A266-DDBE1A40646A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -852,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{57C990E1-5312-4FD2-9918-C13D7166C415}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{11B20E94-7F21-4114-892A-F42C41976CCF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1183,10 +1181,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97416AD-E5C4-49B5-8192-A110C4B82975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065AE28-49BB-4380-BED3-FCF313015C2D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7">
         <v>67</v>
@@ -1254,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1282,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
         <v>56</v>
@@ -1422,7 +1422,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
         <v>28</v>
@@ -1450,7 +1450,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>37</v>
@@ -1492,10 +1492,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1534,10 +1534,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1562,10 +1562,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1579,7 +1579,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1646,7 +1646,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="7">
         <v>36</v>
@@ -1719,7 +1719,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1744,10 +1744,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1758,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="7">
         <v>50</v>
@@ -1803,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="D44" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1831,7 +1831,7 @@
         <v>68</v>
       </c>
       <c r="D46" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1929,7 +1929,7 @@
         <v>83</v>
       </c>
       <c r="D53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1940,10 +1940,10 @@
         <v>104</v>
       </c>
       <c r="C54" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2038,10 +2038,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2136,10 +2136,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D68" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2206,10 +2206,10 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2262,10 +2262,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
+        <v>133</v>
+      </c>
+      <c r="D77" s="7">
         <v>132</v>
-      </c>
-      <c r="D77" s="7">
-        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2360,10 +2360,10 @@
         <v>164</v>
       </c>
       <c r="C84" s="7">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D84" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2472,10 +2472,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D92" s="7">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2484,40 +2484,14 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5428</v>
+        <v>5450</v>
       </c>
       <c r="D93" s="7">
-        <v>4358</v>
+        <v>4377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69562641-6F7A-405B-921A-F4DD405F4BD9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFCD557-8724-4C37-AFFF-A684CF2C53E1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D6BBE9-D6AC-464B-9BF3-E68B9CBF2D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF0DFC-3463-4C01-9D37-41C321739AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{594C85AF-3121-4D2C-B933-E5CB6584F56A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D133C954-0389-44D7-97E8-28664D94689A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{A57DCAF6-D23C-41D7-BD53-A46FB3E9ABFC}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{E77BD57B-D19D-435B-B418-2852DEA91498}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A437273-3A42-4853-85FD-6C33EC5FE98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F5AD3-7B47-41FA-B459-0205624B6D24}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1255,7 +1255,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1434,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1577,7 +1577,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1826,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1868,7 +1868,7 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" s="7">
         <v>53</v>
@@ -1910,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2008,10 +2008,10 @@
         <v>114</v>
       </c>
       <c r="C59" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2050,10 +2050,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2176,10 +2176,10 @@
         <v>138</v>
       </c>
       <c r="C71" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D71" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2263,7 +2263,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D92" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5463</v>
+        <v>5472</v>
       </c>
       <c r="D93" s="7">
-        <v>4391</v>
+        <v>4405</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF0DFC-3463-4C01-9D37-41C321739AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0F2C2-C6AE-4355-8DA0-51BB25A9EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D133C954-0389-44D7-97E8-28664D94689A}"/>
+    <workbookView xWindow="840" yWindow="840" windowWidth="15375" windowHeight="7875" xr2:uid="{882341CF-700C-4057-9720-DD5095D2F8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{E77BD57B-D19D-435B-B418-2852DEA91498}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{514EA2AC-0569-488E-8DBF-B7286FDEA12E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F5AD3-7B47-41FA-B459-0205624B6D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1EDA2-A189-406C-9BE3-80E6253A3A73}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
         <v>67</v>
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
         <v>56</v>
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1311,7 +1311,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1339,7 +1339,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
         <v>32</v>
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1423,7 +1423,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1434,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
         <v>39</v>
@@ -1448,10 +1448,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1493,7 +1493,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1504,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1532,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1605,7 +1605,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1630,10 +1630,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1647,7 +1647,7 @@
         <v>51</v>
       </c>
       <c r="D33" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1686,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1742,10 +1742,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1756,10 +1756,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D41" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1784,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,10 +1798,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1854,10 +1854,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,7 +1910,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" s="7">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1980,7 +1980,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" s="7">
         <v>45</v>
@@ -2064,10 +2064,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D63" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2106,7 +2106,7 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66" s="7">
         <v>49</v>
@@ -2134,10 +2134,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D68" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2162,7 +2162,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D70" s="7">
         <v>43</v>
@@ -2204,7 +2204,7 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D73" s="7">
         <v>40</v>
@@ -2260,10 +2260,10 @@
         <v>150</v>
       </c>
       <c r="C77" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D77" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D78" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,7 +2316,7 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="7">
         <v>53</v>
@@ -2330,7 +2330,7 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" s="7">
         <v>15</v>
@@ -2344,10 +2344,10 @@
         <v>162</v>
       </c>
       <c r="C83" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D83" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2361,7 +2361,7 @@
         <v>190</v>
       </c>
       <c r="D84" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="7">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,10 +2482,10 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5472</v>
+        <v>5505</v>
       </c>
       <c r="D93" s="7">
-        <v>4405</v>
+        <v>4438</v>
       </c>
     </row>
   </sheetData>

--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0F2C2-C6AE-4355-8DA0-51BB25A9EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2596ED-6BCA-483E-BDCE-6219059418FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="840" windowWidth="15375" windowHeight="7875" xr2:uid="{882341CF-700C-4057-9720-DD5095D2F8FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4E6F0E5-D7E0-466D-9797-C537A8ACB81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -850,7 +852,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{514EA2AC-0569-488E-8DBF-B7286FDEA12E}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{28C4F68F-678B-47CD-92A6-072C6142AF3E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1EDA2-A189-406C-9BE3-80E6253A3A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64AA30E-EED3-4E03-83C8-057C3BE8CD1A}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1238,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
         <v>56</v>
@@ -1518,10 +1520,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1686,7 +1688,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7">
         <v>26</v>
@@ -1717,7 +1719,7 @@
         <v>65</v>
       </c>
       <c r="D38" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1828,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D46" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2064,10 +2066,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D63" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2136,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D68" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2472,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,14 +2484,40 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5505</v>
+        <v>5513</v>
       </c>
       <c r="D93" s="7">
-        <v>4438</v>
+        <v>4445</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1D2801-F89F-42B7-A207-0E08A875B5A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA573CD-2CAB-4F65-85ED-26C06F752067}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2596ED-6BCA-483E-BDCE-6219059418FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8C0B9-C8CC-4FE6-944D-2210B2B6ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4E6F0E5-D7E0-466D-9797-C537A8ACB81A}"/>
+    <workbookView xWindow="21150" yWindow="1260" windowWidth="16740" windowHeight="9420" xr2:uid="{486983F3-5B05-46D7-8D6C-4C4447D89887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -852,7 +850,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{28C4F68F-678B-47CD-92A6-072C6142AF3E}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{B9349F5E-A879-42FF-98DD-BE82746D4883}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1183,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64AA30E-EED3-4E03-83C8-057C3BE8CD1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7860135-A60E-464C-A79C-0BDD982E74B6}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1212,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7">
         <v>22</v>
@@ -1285,7 +1283,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1380,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7">
         <v>85</v>
@@ -1576,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1663,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1688,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="C36" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1705,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1831,7 +1829,7 @@
         <v>71</v>
       </c>
       <c r="D46" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1926,7 +1924,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" s="7">
         <v>75</v>
@@ -1982,7 +1980,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57" s="7">
         <v>45</v>
@@ -2038,10 +2036,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D61" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2164,10 +2162,10 @@
         <v>136</v>
       </c>
       <c r="C70" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2276,7 +2274,7 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" s="7">
         <v>63</v>
@@ -2318,10 +2316,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D81" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2472,10 +2470,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" s="7">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2484,40 +2482,14 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5513</v>
+        <v>5528</v>
       </c>
       <c r="D93" s="7">
-        <v>4445</v>
+        <v>4459</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1D2801-F89F-42B7-A207-0E08A875B5A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA573CD-2CAB-4F65-85ED-26C06F752067}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/saitenuni.xlsx
+++ b/saitenuni.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinji\Desktop\VSCode\saiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8C0B9-C8CC-4FE6-944D-2210B2B6ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D628C0-BA7C-40A8-A9F9-DEEBE17F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="1260" windowWidth="16740" windowHeight="9420" xr2:uid="{486983F3-5B05-46D7-8D6C-4C4447D89887}"/>
+    <workbookView xWindow="1170" yWindow="765" windowWidth="14400" windowHeight="10755" xr2:uid="{2D2EE6EA-3CBC-471B-882D-0351B8D24BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -850,7 +852,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{B9349F5E-A879-42FF-98DD-BE82746D4883}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2689C1CB-6B19-4950-9736-5B261FA9A5F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7860135-A60E-464C-A79C-0BDD982E74B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF67510E-ACA0-41A9-AE8C-6BF29D51A368}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1210,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7">
         <v>22</v>
@@ -1224,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1241,7 +1243,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1269,7 +1271,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
         <v>57</v>
@@ -1297,7 +1299,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,10 +1310,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1322,7 +1324,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
         <v>21</v>
@@ -1336,10 +1338,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,10 +1352,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1364,10 +1366,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1378,10 +1380,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1406,10 +1408,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,10 +1422,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,10 +1478,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1493,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1504,10 +1506,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1532,10 +1534,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,10 +1548,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1560,10 +1562,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,10 +1576,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1588,10 +1590,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1602,10 +1604,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,10 +1618,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,10 +1646,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1661,7 +1663,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1672,10 +1674,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1689,7 +1691,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1700,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D37" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1742,10 +1744,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1770,10 +1772,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1784,10 +1786,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D43" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,10 +1800,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1826,10 +1828,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1840,10 +1842,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1854,7 +1856,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="7">
         <v>35</v>
@@ -1868,10 +1870,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1910,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="7">
         <v>41</v>
@@ -1952,10 +1954,10 @@
         <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1980,10 +1982,10 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D57" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1994,10 +1996,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D58" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2022,10 +2024,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D60" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2036,10 +2038,10 @@
         <v>118</v>
       </c>
       <c r="C61" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2050,10 +2052,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2064,10 +2066,10 @@
         <v>122</v>
       </c>
       <c r="C63" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D63" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2095,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="D65" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2106,10 +2108,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D66" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2134,10 +2136,10 @@
         <v>132</v>
       </c>
       <c r="C68" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2165,7 +2167,7 @@
         <v>54</v>
       </c>
       <c r="D70" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2190,7 +2192,7 @@
         <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D72" s="7">
         <v>24</v>
@@ -2204,10 +2206,10 @@
         <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D73" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2235,7 +2237,7 @@
         <v>108</v>
       </c>
       <c r="D75" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2246,10 +2248,10 @@
         <v>148</v>
       </c>
       <c r="C76" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2274,10 +2276,10 @@
         <v>152</v>
       </c>
       <c r="C78" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,10 +2318,10 @@
         <v>158</v>
       </c>
       <c r="C81" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D81" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -2330,10 +2332,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -2347,7 +2349,7 @@
         <v>71</v>
       </c>
       <c r="D83" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2470,10 +2472,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="7">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D92" s="7">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,14 +2484,40 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7">
-        <v>5528</v>
+        <v>5616</v>
       </c>
       <c r="D93" s="7">
-        <v>4459</v>
+        <v>4536</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4709BD29-0068-4EF3-9D90-8836B20E6E2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF10E188-2A99-454F-95F7-78D7DB565EC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>